--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Hcrt</t>
   </si>
   <si>
     <t>Hcrtr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.398891425606458</v>
+        <v>0.488331</v>
       </c>
       <c r="H2">
-        <v>0.398891425606458</v>
+        <v>0.976662</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4297025930548877</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3386432384526727</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.636252701872456</v>
+        <v>0.6612669999999999</v>
       </c>
       <c r="N2">
-        <v>0.636252701872456</v>
+        <v>1.322534</v>
       </c>
       <c r="O2">
-        <v>0.482739561618194</v>
+        <v>0.4625884841688627</v>
       </c>
       <c r="P2">
-        <v>0.482739561618194</v>
+        <v>0.4005547351167076</v>
       </c>
       <c r="Q2">
-        <v>0.2537957472958647</v>
+        <v>0.322917175377</v>
       </c>
       <c r="R2">
-        <v>0.2537957472958647</v>
+        <v>1.291668701508</v>
       </c>
       <c r="S2">
-        <v>0.482739561618194</v>
+        <v>0.1987754711646901</v>
       </c>
       <c r="T2">
-        <v>0.482739561618194</v>
+        <v>0.1356451526774743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.398891425606458</v>
+        <v>0.488331</v>
       </c>
       <c r="H3">
-        <v>0.398891425606458</v>
+        <v>0.976662</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4297025930548877</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3386432384526727</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.387240127143333</v>
+        <v>0.02634933333333333</v>
       </c>
       <c r="N3">
-        <v>0.387240127143333</v>
+        <v>0.07904799999999999</v>
       </c>
       <c r="O3">
-        <v>0.293807992748799</v>
+        <v>0.01843264243569806</v>
       </c>
       <c r="P3">
-        <v>0.293807992748799</v>
+        <v>0.02394119977369618</v>
       </c>
       <c r="Q3">
-        <v>0.1544667663682301</v>
+        <v>0.012867196296</v>
       </c>
       <c r="R3">
-        <v>0.1544667663682301</v>
+        <v>0.077203177776</v>
       </c>
       <c r="S3">
-        <v>0.293807992748799</v>
+        <v>0.007920554251473019</v>
       </c>
       <c r="T3">
-        <v>0.293807992748799</v>
+        <v>0.008107525423806869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,1115 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.488331</v>
+      </c>
+      <c r="H4">
+        <v>0.976662</v>
+      </c>
+      <c r="I4">
+        <v>0.4297025930548877</v>
+      </c>
+      <c r="J4">
+        <v>0.3386432384526727</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.4164206666666666</v>
+      </c>
+      <c r="N4">
+        <v>1.249262</v>
+      </c>
+      <c r="O4">
+        <v>0.2913065448146067</v>
+      </c>
+      <c r="P4">
+        <v>0.3783629074952843</v>
+      </c>
+      <c r="Q4">
+        <v>0.203351120574</v>
+      </c>
+      <c r="R4">
+        <v>1.220106723444</v>
+      </c>
+      <c r="S4">
+        <v>0.1251751776806964</v>
+      </c>
+      <c r="T4">
+        <v>0.1281300403045721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.488331</v>
+      </c>
+      <c r="H5">
+        <v>0.976662</v>
+      </c>
+      <c r="I5">
+        <v>0.4297025930548877</v>
+      </c>
+      <c r="J5">
+        <v>0.3386432384526727</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.325456</v>
+      </c>
+      <c r="N5">
+        <v>0.650912</v>
+      </c>
+      <c r="O5">
+        <v>0.2276723285808325</v>
+      </c>
+      <c r="P5">
+        <v>0.1971411576143119</v>
+      </c>
+      <c r="Q5">
+        <v>0.158930253936</v>
+      </c>
+      <c r="R5">
+        <v>0.6357210157440001</v>
+      </c>
+      <c r="S5">
+        <v>0.09783138995802815</v>
+      </c>
+      <c r="T5">
+        <v>0.06676052004681936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1752026666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.525608</v>
+      </c>
+      <c r="I6">
+        <v>0.1541680544073544</v>
+      </c>
+      <c r="J6">
+        <v>0.1822468727938963</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6612669999999999</v>
+      </c>
+      <c r="N6">
+        <v>1.322534</v>
+      </c>
+      <c r="O6">
+        <v>0.4625884841688627</v>
+      </c>
+      <c r="P6">
+        <v>0.4005547351167076</v>
+      </c>
+      <c r="Q6">
+        <v>0.1158557417786666</v>
+      </c>
+      <c r="R6">
+        <v>0.6951344506719999</v>
+      </c>
+      <c r="S6">
+        <v>0.07131636659556082</v>
+      </c>
+      <c r="T6">
+        <v>0.07299984785780744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1752026666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.525608</v>
+      </c>
+      <c r="I7">
+        <v>0.1541680544073544</v>
+      </c>
+      <c r="J7">
+        <v>0.1822468727938963</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02634933333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.07904799999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.01843264243569806</v>
+      </c>
+      <c r="P7">
+        <v>0.02394119977369618</v>
+      </c>
+      <c r="Q7">
+        <v>0.004616473464888888</v>
+      </c>
+      <c r="R7">
+        <v>0.04154826118399999</v>
+      </c>
+      <c r="S7">
+        <v>0.002841724621898009</v>
+      </c>
+      <c r="T7">
+        <v>0.004363208789690067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1752026666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.525608</v>
+      </c>
+      <c r="I8">
+        <v>0.1541680544073544</v>
+      </c>
+      <c r="J8">
+        <v>0.1822468727938963</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4164206666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.249262</v>
+      </c>
+      <c r="O8">
+        <v>0.2913065448146067</v>
+      </c>
+      <c r="P8">
+        <v>0.3783629074952843</v>
+      </c>
+      <c r="Q8">
+        <v>0.07295801125511109</v>
+      </c>
+      <c r="R8">
+        <v>0.6566221012959998</v>
+      </c>
+      <c r="S8">
+        <v>0.04491016325019671</v>
+      </c>
+      <c r="T8">
+        <v>0.06895545667222185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1752026666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.525608</v>
+      </c>
+      <c r="I9">
+        <v>0.1541680544073544</v>
+      </c>
+      <c r="J9">
+        <v>0.1822468727938963</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.325456</v>
+      </c>
+      <c r="N9">
+        <v>0.650912</v>
+      </c>
+      <c r="O9">
+        <v>0.2276723285808325</v>
+      </c>
+      <c r="P9">
+        <v>0.1971411576143119</v>
+      </c>
+      <c r="Q9">
+        <v>0.05702075908266666</v>
+      </c>
+      <c r="R9">
+        <v>0.342124554496</v>
+      </c>
+      <c r="S9">
+        <v>0.03509979993969885</v>
+      </c>
+      <c r="T9">
+        <v>0.03592835947417697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.020254</v>
+      </c>
+      <c r="H10">
+        <v>0.060762</v>
+      </c>
+      <c r="I10">
+        <v>0.0178223301812371</v>
+      </c>
+      <c r="J10">
+        <v>0.02106833321544331</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6612669999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.322534</v>
+      </c>
+      <c r="O10">
+        <v>0.4625884841688627</v>
+      </c>
+      <c r="P10">
+        <v>0.4005547351167076</v>
+      </c>
+      <c r="Q10">
+        <v>0.013393301818</v>
+      </c>
+      <c r="R10">
+        <v>0.08035981090799998</v>
+      </c>
+      <c r="S10">
+        <v>0.008244404702895442</v>
+      </c>
+      <c r="T10">
+        <v>0.008439020630462427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.020254</v>
+      </c>
+      <c r="H11">
+        <v>0.060762</v>
+      </c>
+      <c r="I11">
+        <v>0.0178223301812371</v>
+      </c>
+      <c r="J11">
+        <v>0.02106833321544331</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.02634933333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.07904799999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.01843264243569806</v>
+      </c>
+      <c r="P11">
+        <v>0.02394119977369618</v>
+      </c>
+      <c r="Q11">
+        <v>0.0005336793973333332</v>
+      </c>
+      <c r="R11">
+        <v>0.004803114575999999</v>
+      </c>
+      <c r="S11">
+        <v>0.0003285126396016933</v>
+      </c>
+      <c r="T11">
+        <v>0.0005044011744097271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.020254</v>
+      </c>
+      <c r="H12">
+        <v>0.060762</v>
+      </c>
+      <c r="I12">
+        <v>0.0178223301812371</v>
+      </c>
+      <c r="J12">
+        <v>0.02106833321544331</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4164206666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.249262</v>
+      </c>
+      <c r="O12">
+        <v>0.2913065448146067</v>
+      </c>
+      <c r="P12">
+        <v>0.3783629074952843</v>
+      </c>
+      <c r="Q12">
+        <v>0.008434184182666664</v>
+      </c>
+      <c r="R12">
+        <v>0.07590765764399998</v>
+      </c>
+      <c r="S12">
+        <v>0.005191761425641263</v>
+      </c>
+      <c r="T12">
+        <v>0.007971475811474603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.398891425606458</v>
-      </c>
-      <c r="H4">
-        <v>0.398891425606458</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.29451123043952</v>
-      </c>
-      <c r="N4">
-        <v>0.29451123043952</v>
-      </c>
-      <c r="O4">
-        <v>0.223452445633007</v>
-      </c>
-      <c r="P4">
-        <v>0.223452445633007</v>
-      </c>
-      <c r="Q4">
-        <v>0.1174780045671322</v>
-      </c>
-      <c r="R4">
-        <v>0.1174780045671322</v>
-      </c>
-      <c r="S4">
-        <v>0.223452445633007</v>
-      </c>
-      <c r="T4">
-        <v>0.223452445633007</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.020254</v>
+      </c>
+      <c r="H13">
+        <v>0.060762</v>
+      </c>
+      <c r="I13">
+        <v>0.0178223301812371</v>
+      </c>
+      <c r="J13">
+        <v>0.02106833321544331</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.325456</v>
+      </c>
+      <c r="N13">
+        <v>0.650912</v>
+      </c>
+      <c r="O13">
+        <v>0.2276723285808325</v>
+      </c>
+      <c r="P13">
+        <v>0.1971411576143119</v>
+      </c>
+      <c r="Q13">
+        <v>0.006591785823999999</v>
+      </c>
+      <c r="R13">
+        <v>0.039550714944</v>
+      </c>
+      <c r="S13">
+        <v>0.004057651413098702</v>
+      </c>
+      <c r="T13">
+        <v>0.004153435599096552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4157083333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.247125</v>
+      </c>
+      <c r="I14">
+        <v>0.3657989125979283</v>
+      </c>
+      <c r="J14">
+        <v>0.4324223208799866</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6612669999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.322534</v>
+      </c>
+      <c r="O14">
+        <v>0.4625884841688627</v>
+      </c>
+      <c r="P14">
+        <v>0.4005547351167076</v>
+      </c>
+      <c r="Q14">
+        <v>0.2748942024583333</v>
+      </c>
+      <c r="R14">
+        <v>1.64936521475</v>
+      </c>
+      <c r="S14">
+        <v>0.1692143644892939</v>
+      </c>
+      <c r="T14">
+        <v>0.1732088081986349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4157083333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.247125</v>
+      </c>
+      <c r="I15">
+        <v>0.3657989125979283</v>
+      </c>
+      <c r="J15">
+        <v>0.4324223208799866</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02634933333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.07904799999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.01843264243569806</v>
+      </c>
+      <c r="P15">
+        <v>0.02394119977369618</v>
+      </c>
+      <c r="Q15">
+        <v>0.01095363744444444</v>
+      </c>
+      <c r="R15">
+        <v>0.09858273699999999</v>
+      </c>
+      <c r="S15">
+        <v>0.00674264055928478</v>
+      </c>
+      <c r="T15">
+        <v>0.01035270917079311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4157083333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.247125</v>
+      </c>
+      <c r="I16">
+        <v>0.3657989125979283</v>
+      </c>
+      <c r="J16">
+        <v>0.4324223208799866</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4164206666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.249262</v>
+      </c>
+      <c r="O16">
+        <v>0.2913065448146067</v>
+      </c>
+      <c r="P16">
+        <v>0.3783629074952843</v>
+      </c>
+      <c r="Q16">
+        <v>0.1731095413055555</v>
+      </c>
+      <c r="R16">
+        <v>1.55798587175</v>
+      </c>
+      <c r="S16">
+        <v>0.1065596173258428</v>
+      </c>
+      <c r="T16">
+        <v>0.1636125665940105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4157083333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.247125</v>
+      </c>
+      <c r="I17">
+        <v>0.3657989125979283</v>
+      </c>
+      <c r="J17">
+        <v>0.4324223208799866</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.325456</v>
+      </c>
+      <c r="N17">
+        <v>0.650912</v>
+      </c>
+      <c r="O17">
+        <v>0.2276723285808325</v>
+      </c>
+      <c r="P17">
+        <v>0.1971411576143119</v>
+      </c>
+      <c r="Q17">
+        <v>0.1352947713333333</v>
+      </c>
+      <c r="R17">
+        <v>0.811768628</v>
+      </c>
+      <c r="S17">
+        <v>0.08328229022350676</v>
+      </c>
+      <c r="T17">
+        <v>0.085248236916548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0369435</v>
+      </c>
+      <c r="H18">
+        <v>0.07388699999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.03250810975859252</v>
+      </c>
+      <c r="J18">
+        <v>0.02561923465800105</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6612669999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.322534</v>
+      </c>
+      <c r="O18">
+        <v>0.4625884841688627</v>
+      </c>
+      <c r="P18">
+        <v>0.4005547351167076</v>
+      </c>
+      <c r="Q18">
+        <v>0.02442951741449999</v>
+      </c>
+      <c r="R18">
+        <v>0.09771806965799998</v>
+      </c>
+      <c r="S18">
+        <v>0.01503787721642232</v>
+      </c>
+      <c r="T18">
+        <v>0.01026190575232839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0369435</v>
+      </c>
+      <c r="H19">
+        <v>0.07388699999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.03250810975859252</v>
+      </c>
+      <c r="J19">
+        <v>0.02561923465800105</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02634933333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.07904799999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.01843264243569806</v>
+      </c>
+      <c r="P19">
+        <v>0.02394119977369618</v>
+      </c>
+      <c r="Q19">
+        <v>0.0009734365959999998</v>
+      </c>
+      <c r="R19">
+        <v>0.005840619575999999</v>
+      </c>
+      <c r="S19">
+        <v>0.0005992103634405628</v>
+      </c>
+      <c r="T19">
+        <v>0.0006133552149964041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0369435</v>
+      </c>
+      <c r="H20">
+        <v>0.07388699999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.03250810975859252</v>
+      </c>
+      <c r="J20">
+        <v>0.02561923465800105</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4164206666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.249262</v>
+      </c>
+      <c r="O20">
+        <v>0.2913065448146067</v>
+      </c>
+      <c r="P20">
+        <v>0.3783629074952843</v>
+      </c>
+      <c r="Q20">
+        <v>0.015384036899</v>
+      </c>
+      <c r="R20">
+        <v>0.09230422139399998</v>
+      </c>
+      <c r="S20">
+        <v>0.009469825132229584</v>
+      </c>
+      <c r="T20">
+        <v>0.009693368113005236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0369435</v>
+      </c>
+      <c r="H21">
+        <v>0.07388699999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.03250810975859252</v>
+      </c>
+      <c r="J21">
+        <v>0.02561923465800105</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.325456</v>
+      </c>
+      <c r="N21">
+        <v>0.650912</v>
+      </c>
+      <c r="O21">
+        <v>0.2276723285808325</v>
+      </c>
+      <c r="P21">
+        <v>0.1971411576143119</v>
+      </c>
+      <c r="Q21">
+        <v>0.012023483736</v>
+      </c>
+      <c r="R21">
+        <v>0.048093934944</v>
+      </c>
+      <c r="S21">
+        <v>0.007401197046500043</v>
+      </c>
+      <c r="T21">
+        <v>0.005050605577671028</v>
       </c>
     </row>
   </sheetData>
